--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6704012-D6E9-4440-BED0-618CD9EA409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D42C71A-711C-4262-A4B9-A6739A1263A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>ano</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>31-11-2022</t>
+  </si>
+  <si>
+    <t>31-02-2023</t>
   </si>
 </sst>
 </file>
@@ -687,7 +690,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="A219" sqref="A219"/>
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2438,7 +2441,12 @@
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="2"/>
+      <c r="A219" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B219" s="4">
+        <v>182.48</v>
+      </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D42C71A-711C-4262-A4B9-A6739A1263A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172B85A9-15A6-48AF-B60A-FB5275772CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,7 +690,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+      <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2449,7 +2449,12 @@
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="2"/>
+      <c r="A220" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B220" s="4">
+        <v>188.24</v>
+      </c>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172B85A9-15A6-48AF-B60A-FB5275772CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ABDA3E-8446-424E-B674-C5FEC633D9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>ano</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>31-02-2023</t>
+  </si>
+  <si>
+    <t>31-04-2023</t>
   </si>
 </sst>
 </file>
@@ -690,7 +693,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="B221" sqref="B221"/>
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2457,7 +2460,12 @@
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="2"/>
+      <c r="A221" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B221" s="4">
+        <v>173.3</v>
+      </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ABDA3E-8446-424E-B674-C5FEC633D9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE0D226-4F20-48C5-BA28-C63D5C8E83D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,7 +693,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2468,7 +2468,12 @@
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="2"/>
+      <c r="A222" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B222" s="4">
+        <v>167.04</v>
+      </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE0D226-4F20-48C5-BA28-C63D5C8E83D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD33D551-45C8-4604-A1BC-3DEDA74C8DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>ano</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>31-04-2023</t>
+  </si>
+  <si>
+    <t>31-06-2023</t>
   </si>
 </sst>
 </file>
@@ -693,7 +696,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2476,7 +2479,12 @@
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="2"/>
+      <c r="A223" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B223" s="4">
+        <v>160.02000000000001</v>
+      </c>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD33D551-45C8-4604-A1BC-3DEDA74C8DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50454B34-8D71-4A43-8A22-E6830B35EC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,7 +696,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2487,7 +2487,12 @@
       </c>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="2"/>
+      <c r="A224" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B224" s="4">
+        <v>146.57</v>
+      </c>
     </row>
     <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50454B34-8D71-4A43-8A22-E6830B35EC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FC2ABB-7D12-4055-83BF-8FDB5DE80A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,7 +696,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+      <selection activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2494,52 +2494,57 @@
         <v>146.57</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="2"/>
-    </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B225" s="4">
+        <v>151.69999999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
     </row>
     <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FC2ABB-7D12-4055-83BF-8FDB5DE80A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D2AA91-AF95-4A46-B411-E0CE7115BA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>ano</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>31-06-2023</t>
+  </si>
+  <si>
+    <t>31-09-2023</t>
   </si>
 </sst>
 </file>
@@ -696,7 +699,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2503,7 +2506,12 @@
       </c>
     </row>
     <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="2"/>
+      <c r="A226" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B226" s="4">
+        <v>147.51</v>
+      </c>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D2AA91-AF95-4A46-B411-E0CE7115BA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71B53F1-5F57-49AA-AC40-E3365DF9E202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -331,7 +331,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -340,6 +340,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -362,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -379,6 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,7 +707,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+      <selection activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2514,10 +2522,16 @@
       </c>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="2"/>
+      <c r="A227" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B227" s="4">
+        <v>154.4</v>
+      </c>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
+      <c r="B228" s="6"/>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71B53F1-5F57-49AA-AC40-E3365DF9E202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC3E590-D38F-4C92-93CB-14888A01437F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>ano</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>31-09-2023</t>
+  </si>
+  <si>
+    <t>31-11-2023</t>
   </si>
 </sst>
 </file>
@@ -342,7 +345,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -707,7 +709,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="B228" sqref="B228"/>
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2530,8 +2532,12 @@
       </c>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="2"/>
-      <c r="B228" s="6"/>
+      <c r="A228" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B228" s="6">
+        <v>153</v>
+      </c>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC3E590-D38F-4C92-93CB-14888A01437F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C4B6E1-B5E8-42BE-B5E0-E0E9BC43011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,8 +708,8 @@
   </sheetPr>
   <dimension ref="A1:B262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="D222" sqref="D222"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2540,7 +2540,12 @@
       </c>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="2"/>
+      <c r="A229" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B229" s="4">
+        <v>151.43</v>
+      </c>
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C4B6E1-B5E8-42BE-B5E0-E0E9BC43011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CD7CE8-F207-4302-A92B-9CE96F569332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,8 +708,8 @@
   </sheetPr>
   <dimension ref="A1:B262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="B230" sqref="B230"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2548,7 +2548,12 @@
       </c>
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="2"/>
+      <c r="A230" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B230" s="4">
+        <v>169.7</v>
+      </c>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CD7CE8-F207-4302-A92B-9CE96F569332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047BADAF-4C96-4AB0-AFDF-3A85B4E0261E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>ano</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>31-11-2023</t>
+  </si>
+  <si>
+    <t>31-02-2024</t>
   </si>
 </sst>
 </file>
@@ -709,7 +712,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
+      <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2556,7 +2559,12 @@
       </c>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="2"/>
+      <c r="A231" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B231" s="4">
+        <v>178.43</v>
+      </c>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047BADAF-4C96-4AB0-AFDF-3A85B4E0261E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10F6023-CDE5-4D01-9583-6F6489434F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,7 +712,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="B232" sqref="B232"/>
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2567,7 +2567,12 @@
       </c>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="2"/>
+      <c r="A232" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B232" s="4">
+        <v>162.32</v>
+      </c>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10F6023-CDE5-4D01-9583-6F6489434F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E5438D-B61E-48ED-A01B-A4F35C40C2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="1665" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="carne_ilheus" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>ano</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>31-02-2024</t>
+  </si>
+  <si>
+    <t>31-04-2024</t>
   </si>
 </sst>
 </file>
@@ -711,8 +714,8 @@
   </sheetPr>
   <dimension ref="A1:B262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="D237" sqref="D237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2575,7 +2578,12 @@
       </c>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="2"/>
+      <c r="A233" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B233" s="4">
+        <v>146.52000000000001</v>
+      </c>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E5438D-B61E-48ED-A01B-A4F35C40C2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F55F29-6BE4-4E01-AD64-3A0E8438FD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="1665" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="carne_ilheus" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="D237" sqref="D237"/>
+      <selection activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2586,7 +2586,12 @@
       </c>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="2"/>
+      <c r="A234" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B234" s="4">
+        <v>146.84</v>
+      </c>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F55F29-6BE4-4E01-AD64-3A0E8438FD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AE0804-EE8C-470C-8CD4-6AF4DE783F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>ano</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>31-04-2024</t>
+  </si>
+  <si>
+    <t>31-06-2024</t>
   </si>
 </sst>
 </file>
@@ -715,7 +718,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B235" sqref="B235"/>
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2594,7 +2597,12 @@
       </c>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="2"/>
+      <c r="A235" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B235" s="4">
+        <v>159.12</v>
+      </c>
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AE0804-EE8C-470C-8CD4-6AF4DE783F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC21E4A7-4D43-4730-B6F1-8A413D30EE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,7 +718,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B236" sqref="B236"/>
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2605,7 +2605,12 @@
       </c>
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="2"/>
+      <c r="A236" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B236" s="4">
+        <v>147.47</v>
+      </c>
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\ilheus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC21E4A7-4D43-4730-B6F1-8A413D30EE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF2A83A-CBE3-44C9-B324-5516D95BE6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,7 +718,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B237" sqref="B237"/>
+      <selection activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2613,7 +2613,12 @@
       </c>
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="2"/>
+      <c r="A237" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B237" s="4">
+        <v>152.87</v>
+      </c>
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF2A83A-CBE3-44C9-B324-5516D95BE6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A1900E-15F6-4564-A18B-3B0093946438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>ano</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>31-06-2024</t>
+  </si>
+  <si>
+    <t>31-09-2024</t>
   </si>
 </sst>
 </file>
@@ -718,7 +721,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B238" sqref="B238"/>
+      <selection activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2621,7 +2624,12 @@
       </c>
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="2"/>
+      <c r="A238" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B238" s="4">
+        <v>167.45</v>
+      </c>
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A1900E-15F6-4564-A18B-3B0093946438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC698C4A-1818-4DC6-8BEE-93C7BE798119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,7 +721,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2632,7 +2632,12 @@
       </c>
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="2"/>
+      <c r="A239" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B239" s="4">
+        <v>174.2</v>
+      </c>
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC698C4A-1818-4DC6-8BEE-93C7BE798119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBDC19F-E8DA-4172-B6D9-654950B7F898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>ano</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>31-09-2024</t>
+  </si>
+  <si>
+    <t>31-11-2024</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B240" sqref="B240"/>
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2640,7 +2643,12 @@
       </c>
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="2"/>
+      <c r="A240" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B240" s="4">
+        <v>193.64</v>
+      </c>
     </row>
     <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBDC19F-E8DA-4172-B6D9-654950B7F898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314EE408-C5B9-4195-ABEE-521D788329AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -724,7 +724,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2650,52 +2650,57 @@
         <v>193.64</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="2"/>
-    </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B241" s="4">
+        <v>196.61</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
     </row>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
     </row>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
     </row>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
     </row>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
     </row>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
     </row>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
     </row>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
     </row>
     <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314EE408-C5B9-4195-ABEE-521D788329AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56057945-E741-4182-A21B-AD40E23CE7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -724,7 +724,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+      <selection activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2659,7 +2659,12 @@
       </c>
     </row>
     <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="2"/>
+      <c r="A242" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B242" s="4">
+        <v>189.86</v>
+      </c>
     </row>
     <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56057945-E741-4182-A21B-AD40E23CE7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0EF02B-AA19-4A7E-B201-B38DBCA7BBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>ano</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>31-11-2024</t>
+  </si>
+  <si>
+    <t>31-02-2025</t>
   </si>
 </sst>
 </file>
@@ -724,7 +727,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243"/>
+      <selection activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2667,7 +2670,12 @@
       </c>
     </row>
     <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="2"/>
+      <c r="A243" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B243" s="4">
+        <v>200.88</v>
+      </c>
     </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0EF02B-AA19-4A7E-B201-B38DBCA7BBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B20299B-0FC7-461B-BD75-51951D75A43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="carne_ilheus" sheetId="1" r:id="rId1"/>
@@ -727,7 +727,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B244" sqref="B244"/>
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2678,7 +2678,12 @@
       </c>
     </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="2"/>
+      <c r="A244" s="2">
+        <v>45747</v>
+      </c>
+      <c r="B244" s="4">
+        <v>189.09</v>
+      </c>
     </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B20299B-0FC7-461B-BD75-51951D75A43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66AF4DF-17FA-431D-91BE-382062050081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>ano</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>31-02-2025</t>
+  </si>
+  <si>
+    <t>31-04-2025</t>
   </si>
 </sst>
 </file>
@@ -727,7 +730,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2686,7 +2689,12 @@
       </c>
     </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="2"/>
+      <c r="A245" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B245" s="4">
+        <v>186.35</v>
+      </c>
     </row>
     <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F986409-3C78-4BD8-B157-AA13D811449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="carne_ilheus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="carne_ilheus" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>ano</t>
   </si>
@@ -331,23 +348,26 @@
   </si>
   <si>
     <t>31-04-2025</t>
+  </si>
+  <si>
+    <t>31-06-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color indexed="64"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -361,34 +381,34 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,291 +426,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -893,23 +630,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B262"/>
   <sheetViews>
-    <sheetView topLeftCell="A227" zoomScale="100" workbookViewId="0">
-      <selection activeCell="B246" activeCellId="0" sqref="B246"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,23 +655,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2" s="3">
-        <v>38.210000000000001</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+        <v>38.21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>36.859999999999999</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+        <v>36.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
@@ -941,39 +679,39 @@
         <v>38.840000000000003</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>37.759999999999998</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+        <v>37.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
       <c r="B6" s="3">
-        <v>39.329999999999998</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+        <v>39.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>37.579999999999998</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+        <v>37.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8" s="3">
-        <v>39.600000000000001</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
@@ -981,7 +719,7 @@
         <v>36.409999999999997</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -989,15 +727,15 @@
         <v>36.950000000000003</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11" s="3">
-        <v>37.530000000000001</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+        <v>37.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -1005,7 +743,7 @@
         <v>37.619999999999997</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
@@ -1013,7 +751,7 @@
         <v>38.340000000000003</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
@@ -1021,7 +759,7 @@
         <v>38.520000000000003</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1029,7 +767,7 @@
         <v>38.07</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
@@ -1037,23 +775,23 @@
         <v>38.119999999999997</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="3">
-        <v>37.170000000000002</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+        <v>37.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18" s="3">
-        <v>37.259999999999998</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+        <v>37.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1061,31 +799,31 @@
         <v>36.590000000000003</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20" s="3">
-        <v>37.170000000000002</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>37.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21" s="3">
-        <v>37.890000000000001</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>37.89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="3">
-        <v>39.060000000000002</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75">
+        <v>39.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
@@ -1093,7 +831,7 @@
         <v>38.159999999999997</v>
       </c>
     </row>
-    <row r="24" ht="12.75">
+    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1101,7 +839,7 @@
         <v>37.979999999999997</v>
       </c>
     </row>
-    <row r="25" ht="12.75">
+    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
@@ -1109,23 +847,23 @@
         <v>40.68</v>
       </c>
     </row>
-    <row r="26" ht="12.75">
+    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26" s="3">
-        <v>41.039999999999999</v>
-      </c>
-    </row>
-    <row r="27" ht="12.75">
+        <v>41.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="3">
-        <v>39.109999999999999</v>
-      </c>
-    </row>
-    <row r="28" ht="12.75">
+        <v>39.11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
@@ -1133,7 +871,7 @@
         <v>38.119999999999997</v>
       </c>
     </row>
-    <row r="29" ht="12.75">
+    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -1141,7 +879,7 @@
         <v>38.880000000000003</v>
       </c>
     </row>
-    <row r="30" ht="12.75">
+    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
@@ -1149,7 +887,7 @@
         <v>36.409999999999997</v>
       </c>
     </row>
-    <row r="31" ht="12.75">
+    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1157,7 +895,7 @@
         <v>36.270000000000003</v>
       </c>
     </row>
-    <row r="32" ht="12.75">
+    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
@@ -1165,63 +903,63 @@
         <v>36.229999999999997</v>
       </c>
     </row>
-    <row r="33" ht="12.75">
+    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33" s="3">
-        <v>37.439999999999998</v>
-      </c>
-    </row>
-    <row r="34" ht="12.75">
+        <v>37.44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="3">
-        <v>38.969999999999999</v>
-      </c>
-    </row>
-    <row r="35" ht="12.75">
+        <v>38.97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35" s="3">
-        <v>39.469999999999999</v>
-      </c>
-    </row>
-    <row r="36" ht="12.75">
+        <v>39.47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="3">
-        <v>39.509999999999998</v>
-      </c>
-    </row>
-    <row r="37" ht="12.75">
+        <v>39.51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37" s="3">
-        <v>41.630000000000003</v>
-      </c>
-    </row>
-    <row r="38" ht="12.75">
+        <v>41.63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38" s="3">
-        <v>41.399999999999999</v>
-      </c>
-    </row>
-    <row r="39" ht="12.75">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="3">
-        <v>42.299999999999997</v>
-      </c>
-    </row>
-    <row r="40" ht="12.75">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
@@ -1229,47 +967,47 @@
         <v>40.549999999999997</v>
       </c>
     </row>
-    <row r="41" ht="12.75">
+    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="3">
-        <v>41.759999999999998</v>
-      </c>
-    </row>
-    <row r="42" ht="12.75">
+        <v>41.76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42" s="3">
-        <v>43.700000000000003</v>
-      </c>
-    </row>
-    <row r="43" ht="12.75">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="3">
-        <v>44.600000000000001</v>
-      </c>
-    </row>
-    <row r="44" ht="12.75">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44" s="3">
-        <v>45.229999999999997</v>
-      </c>
-    </row>
-    <row r="45" ht="12.75">
+        <v>45.23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45" s="3">
-        <v>44.960000000000001</v>
-      </c>
-    </row>
-    <row r="46" ht="12.75">
+        <v>44.96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1277,55 +1015,55 @@
         <v>47.43</v>
       </c>
     </row>
-    <row r="47" ht="12.75">
+    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47" s="3">
-        <v>50.399999999999999</v>
-      </c>
-    </row>
-    <row r="48" ht="12.75">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B48" s="3">
-        <v>52.020000000000003</v>
-      </c>
-    </row>
-    <row r="49" ht="12.75">
+        <v>52.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49" s="3">
-        <v>55.399999999999999</v>
-      </c>
-    </row>
-    <row r="50" ht="12.75">
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
       <c r="B50" s="3">
-        <v>53.100000000000001</v>
-      </c>
-    </row>
-    <row r="51" ht="12.75">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="3">
-        <v>51.890000000000001</v>
-      </c>
-    </row>
-    <row r="52" ht="12.75">
+        <v>51.89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52" s="3">
-        <v>51.390000000000001</v>
-      </c>
-    </row>
-    <row r="53" ht="12.75">
+        <v>51.39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
@@ -1333,23 +1071,23 @@
         <v>51.93</v>
       </c>
     </row>
-    <row r="54" ht="12.75">
+    <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54" s="3">
-        <v>50.579999999999998</v>
-      </c>
-    </row>
-    <row r="55" ht="12.75">
+        <v>50.58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="3">
-        <v>50.579999999999998</v>
-      </c>
-    </row>
-    <row r="56" ht="12.75">
+        <v>50.58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
@@ -1357,79 +1095,79 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="57" ht="12.75">
+    <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57" s="3">
-        <v>51.619999999999997</v>
-      </c>
-    </row>
-    <row r="58" ht="12.75">
+        <v>51.62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B58" s="3">
-        <v>53.240000000000002</v>
-      </c>
-    </row>
-    <row r="59" ht="12.75">
+        <v>53.24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59" s="3">
-        <v>46.310000000000002</v>
-      </c>
-    </row>
-    <row r="60" ht="12.75">
+        <v>46.31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="3">
-        <v>52.560000000000002</v>
-      </c>
-    </row>
-    <row r="61" ht="12.75">
+        <v>52.56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61" s="3">
-        <v>49.770000000000003</v>
-      </c>
-    </row>
-    <row r="62" ht="12.75">
+        <v>49.77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62" s="3">
-        <v>50.579999999999998</v>
-      </c>
-    </row>
-    <row r="63" ht="12.75">
+        <v>50.58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="3">
-        <v>53.729999999999997</v>
-      </c>
-    </row>
-    <row r="64" ht="12.75">
+        <v>53.73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
       <c r="B64" s="3">
-        <v>53.549999999999997</v>
-      </c>
-    </row>
-    <row r="65" ht="12.75">
+        <v>53.55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B65" s="3">
-        <v>53.240000000000002</v>
-      </c>
-    </row>
-    <row r="66" ht="12.75">
+        <v>53.24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
@@ -1437,39 +1175,39 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="67" ht="12.75">
+    <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B67" s="3">
-        <v>57.060000000000002</v>
-      </c>
-    </row>
-    <row r="68" ht="12.75">
+        <v>57.06</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68" s="3">
-        <v>56.789999999999999</v>
-      </c>
-    </row>
-    <row r="69" ht="12.75">
+        <v>56.79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69" s="3">
-        <v>57.200000000000003</v>
-      </c>
-    </row>
-    <row r="70" ht="12.75">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B70" s="3">
-        <v>60.619999999999997</v>
-      </c>
-    </row>
-    <row r="71" ht="12.75">
+        <v>60.62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
@@ -1477,31 +1215,31 @@
         <v>63.18</v>
       </c>
     </row>
-    <row r="72" ht="12.75">
+    <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B72" s="3">
-        <v>67.859999999999999</v>
-      </c>
-    </row>
-    <row r="73" ht="12.75">
+        <v>67.86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73" s="3">
-        <v>68.939999999999998</v>
-      </c>
-    </row>
-    <row r="74" ht="12.75">
+        <v>68.94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74" s="3">
-        <v>62.509999999999998</v>
-      </c>
-    </row>
-    <row r="75" ht="12.75">
+        <v>62.51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>32</v>
       </c>
@@ -1509,23 +1247,23 @@
         <v>65.209999999999994</v>
       </c>
     </row>
-    <row r="76" ht="12.75">
+    <row r="76" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76" s="3">
-        <v>66.870000000000005</v>
-      </c>
-    </row>
-    <row r="77" ht="12.75">
+        <v>66.87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B77" s="3">
-        <v>63.450000000000003</v>
-      </c>
-    </row>
-    <row r="78" ht="12.75">
+        <v>63.45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
@@ -1533,31 +1271,31 @@
         <v>63.68</v>
       </c>
     </row>
-    <row r="79" ht="12.75">
+    <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B79" s="3">
-        <v>63.270000000000003</v>
-      </c>
-    </row>
-    <row r="80" ht="12.75">
+        <v>63.27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80" s="3">
-        <v>63.719999999999999</v>
-      </c>
-    </row>
-    <row r="81" ht="12.75">
+        <v>63.72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81" s="3">
-        <v>63.140000000000001</v>
-      </c>
-    </row>
-    <row r="82" ht="12.75">
+        <v>63.14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>35</v>
       </c>
@@ -1565,23 +1303,23 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="83" ht="12.75">
+    <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83" s="3">
-        <v>63.090000000000003</v>
-      </c>
-    </row>
-    <row r="84" ht="12.75">
+        <v>63.09</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B84" s="3">
-        <v>69.439999999999998</v>
-      </c>
-    </row>
-    <row r="85" ht="12.75">
+        <v>69.44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
@@ -1589,31 +1327,31 @@
         <v>73.349999999999994</v>
       </c>
     </row>
-    <row r="86" ht="12.75">
+    <row r="86" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86" s="3">
-        <v>72.719999999999999</v>
-      </c>
-    </row>
-    <row r="87" ht="12.75">
+        <v>72.72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B87" s="3">
-        <v>74.519999999999996</v>
-      </c>
-    </row>
-    <row r="88" ht="12.75">
+        <v>74.52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88" s="3">
-        <v>74.519999999999996</v>
-      </c>
-    </row>
-    <row r="89" ht="12.75">
+        <v>74.52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>38</v>
       </c>
@@ -1621,31 +1359,31 @@
         <v>69.260000000000005</v>
       </c>
     </row>
-    <row r="90" ht="12.75">
+    <row r="90" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90" s="3">
-        <v>71.189999999999998</v>
-      </c>
-    </row>
-    <row r="91" ht="12.75">
+        <v>71.19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="3">
-        <v>65.659999999999997</v>
-      </c>
-    </row>
-    <row r="92" ht="12.75">
+        <v>65.66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92" s="3">
-        <v>64.170000000000002</v>
-      </c>
-    </row>
-    <row r="93" ht="12.75">
+        <v>64.17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
@@ -1653,15 +1391,15 @@
         <v>69.260000000000005</v>
       </c>
     </row>
-    <row r="94" ht="12.75">
+    <row r="94" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B94" s="3">
-        <v>68.129999999999995</v>
-      </c>
-    </row>
-    <row r="95" ht="12.75">
+        <v>68.13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
@@ -1669,7 +1407,7 @@
         <v>70.650000000000006</v>
       </c>
     </row>
-    <row r="96" ht="12.75">
+    <row r="96" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>41</v>
       </c>
@@ -1677,55 +1415,55 @@
         <v>70.430000000000007</v>
       </c>
     </row>
-    <row r="97" ht="12.75">
+    <row r="97" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97" s="3">
-        <v>70.379999999999995</v>
-      </c>
-    </row>
-    <row r="98" ht="12.75">
+        <v>70.38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98" s="3">
-        <v>71.689999999999998</v>
-      </c>
-    </row>
-    <row r="99" ht="12.75">
+        <v>71.69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B99" s="3">
-        <v>74.519999999999996</v>
-      </c>
-    </row>
-    <row r="100" ht="12.75">
+        <v>74.52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100" s="3">
-        <v>73.310000000000002</v>
-      </c>
-    </row>
-    <row r="101" ht="12.75">
+        <v>73.31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B101" s="3">
-        <v>63.049999999999997</v>
-      </c>
-    </row>
-    <row r="102" ht="12.75">
+        <v>63.05</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
       <c r="B102" s="3">
-        <v>68.670000000000002</v>
-      </c>
-    </row>
-    <row r="103" ht="12.75">
+        <v>68.67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>44</v>
       </c>
@@ -1733,31 +1471,31 @@
         <v>69.709999999999994</v>
       </c>
     </row>
-    <row r="104" ht="12.75">
+    <row r="104" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104" s="3">
-        <v>69.390000000000001</v>
-      </c>
-    </row>
-    <row r="105" ht="12.75">
+        <v>69.39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105" s="3">
-        <v>70.920000000000002</v>
-      </c>
-    </row>
-    <row r="106" ht="12.75">
+        <v>70.92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B106" s="3">
-        <v>72.629999999999995</v>
-      </c>
-    </row>
-    <row r="107" ht="12.75">
+        <v>72.63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
@@ -1765,15 +1503,15 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="108" ht="12.75">
+    <row r="108" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B108" s="3">
-        <v>71.420000000000002</v>
-      </c>
-    </row>
-    <row r="109" ht="12.75">
+        <v>71.42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
@@ -1781,7 +1519,7 @@
         <v>71.010000000000005</v>
       </c>
     </row>
-    <row r="110" ht="12.75">
+    <row r="110" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
@@ -1789,23 +1527,23 @@
         <v>72.989999999999995</v>
       </c>
     </row>
-    <row r="111" ht="12.75">
+    <row r="111" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B111" s="3">
-        <v>69.890000000000001</v>
-      </c>
-    </row>
-    <row r="112" ht="12.75">
+        <v>69.89</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112" s="3">
-        <v>72.049999999999997</v>
-      </c>
-    </row>
-    <row r="113" ht="12.75">
+        <v>72.05</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>48</v>
       </c>
@@ -1813,15 +1551,15 @@
         <v>76.319999999999993</v>
       </c>
     </row>
-    <row r="114" ht="12.75">
+    <row r="114" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114" s="3">
-        <v>75.200000000000003</v>
-      </c>
-    </row>
-    <row r="115" ht="12.75">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>49</v>
       </c>
@@ -1829,15 +1567,15 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="116" ht="12.75">
+    <row r="116" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
       <c r="B116" s="3">
-        <v>74.030000000000001</v>
-      </c>
-    </row>
-    <row r="117" ht="12.75">
+        <v>74.03</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
@@ -1845,15 +1583,15 @@
         <v>76.010000000000005</v>
       </c>
     </row>
-    <row r="118" ht="12.75">
+    <row r="118" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B118" s="3">
-        <v>75.420000000000002</v>
-      </c>
-    </row>
-    <row r="119" ht="12.75">
+        <v>75.42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
@@ -1861,7 +1599,7 @@
         <v>75.739999999999995</v>
       </c>
     </row>
-    <row r="120" ht="12.75">
+    <row r="120" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>51</v>
       </c>
@@ -1869,15 +1607,15 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="121" ht="12.75">
+    <row r="121" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121" s="3">
-        <v>76.730000000000004</v>
-      </c>
-    </row>
-    <row r="122" ht="12.75">
+        <v>76.73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
@@ -1885,7 +1623,7 @@
         <v>77.540000000000006</v>
       </c>
     </row>
-    <row r="123" ht="12.75">
+    <row r="123" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>52</v>
       </c>
@@ -1893,7 +1631,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="124" ht="12.75">
+    <row r="124" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
@@ -1901,15 +1639,15 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="125" ht="12.75">
+    <row r="125" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B125" s="3">
-        <v>83.209999999999994</v>
-      </c>
-    </row>
-    <row r="126" ht="12.75">
+        <v>83.21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
@@ -1917,79 +1655,79 @@
         <v>78.75</v>
       </c>
     </row>
-    <row r="127" ht="12.75">
+    <row r="127" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B127" s="3">
-        <v>83.480000000000004</v>
-      </c>
-    </row>
-    <row r="128" ht="12.75">
+        <v>83.48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128" s="3">
-        <v>93.650000000000006</v>
-      </c>
-    </row>
-    <row r="129" ht="12.75">
+        <v>93.65</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129" s="3">
-        <v>95.269999999999996</v>
-      </c>
-    </row>
-    <row r="130" ht="12.75">
+        <v>95.27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B130" s="3">
-        <v>94.950000000000003</v>
-      </c>
-    </row>
-    <row r="131" ht="12.75">
+        <v>94.95</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131" s="3">
-        <v>93.739999999999995</v>
-      </c>
-    </row>
-    <row r="132" ht="12.75">
+        <v>93.74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B132" s="3">
-        <v>96.030000000000001</v>
-      </c>
-    </row>
-    <row r="133" ht="12.75">
+        <v>96.03</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
       <c r="B133" s="3">
-        <v>96.349999999999994</v>
-      </c>
-    </row>
-    <row r="134" ht="12.75">
+        <v>96.35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134" s="3">
-        <v>98.689999999999998</v>
-      </c>
-    </row>
-    <row r="135" ht="12.75">
+        <v>98.69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B135" s="3">
-        <v>104.04000000000001</v>
-      </c>
-    </row>
-    <row r="136" ht="12.75">
+        <v>104.04</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
@@ -1997,231 +1735,231 @@
         <v>105.62</v>
       </c>
     </row>
-    <row r="137" ht="12.75">
+    <row r="137" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B137" s="3">
-        <v>101.06999999999999</v>
-      </c>
-    </row>
-    <row r="138" ht="12.75">
+        <v>101.07</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138" s="3">
-        <v>93.780000000000001</v>
-      </c>
-    </row>
-    <row r="139" ht="12.75">
+        <v>93.78</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B139" s="3">
-        <v>94.640000000000001</v>
-      </c>
-    </row>
-    <row r="140" ht="12.75">
+        <v>94.64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140" s="3">
-        <v>94.859999999999999</v>
-      </c>
-    </row>
-    <row r="141" ht="12.75">
+        <v>94.86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141" s="3">
-        <v>92.790000000000006</v>
-      </c>
-    </row>
-    <row r="142" ht="12.75">
+        <v>92.79</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B142" s="3">
-        <v>93.239999999999995</v>
-      </c>
-    </row>
-    <row r="143" ht="12.75">
+        <v>93.24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143" s="3">
-        <v>95.540000000000006</v>
-      </c>
-    </row>
-    <row r="144" ht="12.75">
+        <v>95.54</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B144" s="3">
-        <v>95.219999999999999</v>
-      </c>
-    </row>
-    <row r="145" ht="12.75">
+        <v>95.22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145" s="3">
-        <v>98.420000000000002</v>
-      </c>
-    </row>
-    <row r="146" ht="12.75">
+        <v>98.42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
       <c r="B146" s="3">
-        <v>100.76000000000001</v>
-      </c>
-    </row>
-    <row r="147" ht="12.75">
+        <v>100.76</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B147" s="3">
-        <v>96.120000000000005</v>
-      </c>
-    </row>
-    <row r="148" ht="12.75">
+        <v>96.12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148" s="3">
-        <v>97.019999999999996</v>
-      </c>
-    </row>
-    <row r="149" ht="12.75">
+        <v>97.02</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B149" s="3">
-        <v>98.189999999999998</v>
-      </c>
-    </row>
-    <row r="150" ht="12.75">
+        <v>98.19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150" s="3">
-        <v>92.700000000000003</v>
-      </c>
-    </row>
-    <row r="151" ht="12.75">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B151" s="3">
-        <v>94.819999999999993</v>
-      </c>
-    </row>
-    <row r="152" ht="12.75">
+        <v>94.82</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152" s="3">
-        <v>94.859999999999999</v>
-      </c>
-    </row>
-    <row r="153" ht="12.75">
+        <v>94.86</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153" s="3">
-        <v>95.489999999999995</v>
-      </c>
-    </row>
-    <row r="154" ht="12.75">
+        <v>95.49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B154" s="3">
-        <v>95.310000000000002</v>
-      </c>
-    </row>
-    <row r="155" ht="12.75">
+        <v>95.31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
       <c r="B155" s="3">
-        <v>97.920000000000002</v>
-      </c>
-    </row>
-    <row r="156" ht="12.75">
+        <v>97.92</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B156" s="3">
-        <v>97.879999999999995</v>
-      </c>
-    </row>
-    <row r="157" ht="12.75">
+        <v>97.88</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157" s="3">
-        <v>98.780000000000001</v>
-      </c>
-    </row>
-    <row r="158" ht="12.75">
+        <v>98.78</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
       <c r="B158" s="3">
-        <v>101.20999999999999</v>
-      </c>
-    </row>
-    <row r="159" ht="12.75">
+        <v>101.21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B159" s="3">
-        <v>101.79000000000001</v>
-      </c>
-    </row>
-    <row r="160" ht="12.75">
+        <v>101.79</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160" s="3">
-        <v>99.180000000000007</v>
-      </c>
-    </row>
-    <row r="161" ht="12.75">
+        <v>99.18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B161" s="3">
-        <v>96.569999999999993</v>
-      </c>
-    </row>
-    <row r="162" ht="12.75">
+        <v>96.57</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162" s="3">
-        <v>99.450000000000003</v>
-      </c>
-    </row>
-    <row r="163" ht="12.75">
+        <v>99.45</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B163" s="3">
-        <v>105.20999999999999</v>
-      </c>
-    </row>
-    <row r="164" ht="12.75">
+        <v>105.21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164" s="3">
-        <v>99.230000000000004</v>
-      </c>
-    </row>
-    <row r="165" ht="12.75">
+        <v>99.23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
@@ -2229,7 +1967,7 @@
         <v>101.52</v>
       </c>
     </row>
-    <row r="166" ht="12.75">
+    <row r="166" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>70</v>
       </c>
@@ -2237,15 +1975,15 @@
         <v>100.22</v>
       </c>
     </row>
-    <row r="167" ht="12.75">
+    <row r="167" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167" s="3">
-        <v>103.01000000000001</v>
-      </c>
-    </row>
-    <row r="168" ht="12.75">
+        <v>103.01</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>71</v>
       </c>
@@ -2253,7 +1991,7 @@
         <v>105.03</v>
       </c>
     </row>
-    <row r="169" ht="12.75">
+    <row r="169" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
@@ -2261,7 +1999,7 @@
         <v>110.16</v>
       </c>
     </row>
-    <row r="170" ht="12.75">
+    <row r="170" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
@@ -2269,7 +2007,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="171" ht="12.75">
+    <row r="171" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>72</v>
       </c>
@@ -2277,7 +2015,7 @@
         <v>114.08</v>
       </c>
     </row>
-    <row r="172" ht="12.75">
+    <row r="172" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
@@ -2285,7 +2023,7 @@
         <v>108.81</v>
       </c>
     </row>
-    <row r="173" ht="12.75">
+    <row r="173" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>73</v>
       </c>
@@ -2293,7 +2031,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="174" ht="12.75">
+    <row r="174" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
@@ -2301,7 +2039,7 @@
         <v>106.11</v>
       </c>
     </row>
-    <row r="175" ht="12.75">
+    <row r="175" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>74</v>
       </c>
@@ -2309,7 +2047,7 @@
         <v>105.48</v>
       </c>
     </row>
-    <row r="176" ht="12.75">
+    <row r="176" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
@@ -2317,7 +2055,7 @@
         <v>101.48</v>
       </c>
     </row>
-    <row r="177" ht="12.75">
+    <row r="177" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
@@ -2325,7 +2063,7 @@
         <v>103.64</v>
       </c>
     </row>
-    <row r="178" ht="12.75">
+    <row r="178" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>75</v>
       </c>
@@ -2333,7 +2071,7 @@
         <v>106.56</v>
       </c>
     </row>
-    <row r="179" ht="12.75">
+    <row r="179" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
@@ -2341,7 +2079,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="180" ht="12.75">
+    <row r="180" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>76</v>
       </c>
@@ -2349,7 +2087,7 @@
         <v>108.45</v>
       </c>
     </row>
-    <row r="181" ht="12.75">
+    <row r="181" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
@@ -2357,7 +2095,7 @@
         <v>129.91999999999999</v>
       </c>
     </row>
-    <row r="182" ht="12.75">
+    <row r="182" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
@@ -2365,7 +2103,7 @@
         <v>107.91</v>
       </c>
     </row>
-    <row r="183" ht="12.75">
+    <row r="183" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>77</v>
       </c>
@@ -2373,7 +2111,7 @@
         <v>113.81</v>
       </c>
     </row>
-    <row r="184" ht="12.75">
+    <row r="184" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
@@ -2381,7 +2119,7 @@
         <v>115.88</v>
       </c>
     </row>
-    <row r="185" ht="12.75">
+    <row r="185" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>78</v>
       </c>
@@ -2389,7 +2127,7 @@
         <v>119.25</v>
       </c>
     </row>
-    <row r="186" ht="12.75">
+    <row r="186" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
@@ -2397,7 +2135,7 @@
         <v>118.62</v>
       </c>
     </row>
-    <row r="187" ht="12.75">
+    <row r="187" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>79</v>
       </c>
@@ -2405,7 +2143,7 @@
         <v>115.25</v>
       </c>
     </row>
-    <row r="188" ht="12.75">
+    <row r="188" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
@@ -2413,7 +2151,7 @@
         <v>118.67</v>
       </c>
     </row>
-    <row r="189" ht="12.75">
+    <row r="189" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
@@ -2421,15 +2159,15 @@
         <v>135.05000000000001</v>
       </c>
     </row>
-    <row r="190" ht="12.75">
+    <row r="190" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B190" s="3">
-        <v>142.78999999999999</v>
-      </c>
-    </row>
-    <row r="191" ht="12.75">
+        <v>142.79</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
@@ -2437,15 +2175,15 @@
         <v>148.19</v>
       </c>
     </row>
-    <row r="192" ht="12.75">
+    <row r="192" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B192" s="3">
-        <v>157.46000000000001</v>
-      </c>
-    </row>
-    <row r="193" ht="12.75">
+        <v>157.46</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>44196</v>
       </c>
@@ -2453,15 +2191,15 @@
         <v>137.84</v>
       </c>
     </row>
-    <row r="194" ht="12.75">
+    <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>44227</v>
       </c>
       <c r="B194" s="3">
-        <v>158.03999999999999</v>
-      </c>
-    </row>
-    <row r="195" ht="12.75">
+        <v>158.04</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>82</v>
       </c>
@@ -2469,15 +2207,15 @@
         <v>159.97999999999999</v>
       </c>
     </row>
-    <row r="196" ht="12.75">
+    <row r="196" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>44286</v>
       </c>
       <c r="B196" s="3">
-        <v>142.43000000000001</v>
-      </c>
-    </row>
-    <row r="197" ht="12.75">
+        <v>142.43</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>83</v>
       </c>
@@ -2485,7 +2223,7 @@
         <v>152.87</v>
       </c>
     </row>
-    <row r="198" ht="12.75">
+    <row r="198" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>44347</v>
       </c>
@@ -2493,7 +2231,7 @@
         <v>156.91999999999999</v>
       </c>
     </row>
-    <row r="199" ht="12.75">
+    <row r="199" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>84</v>
       </c>
@@ -2501,15 +2239,15 @@
         <v>168.66</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>44408</v>
       </c>
       <c r="B200" s="3">
-        <v>161.50999999999999</v>
-      </c>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
+        <v>161.51</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>85</v>
       </c>
@@ -2517,24 +2255,24 @@
         <v>151.56</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B202" s="5">
         <f>35.78*4.5</f>
-        <v>161.00999999999999</v>
-      </c>
-    </row>
-    <row r="203" ht="15.75" customHeight="1">
+        <v>161.01</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>44500</v>
       </c>
       <c r="B203" s="3">
-        <v>172.66999999999999</v>
-      </c>
-    </row>
-    <row r="204" ht="15.75" customHeight="1">
+        <v>172.67</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>87</v>
       </c>
@@ -2542,7 +2280,7 @@
         <v>167.22</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>44561</v>
       </c>
@@ -2550,15 +2288,15 @@
         <v>178.38</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>44592</v>
       </c>
       <c r="B206" s="3">
-        <v>182.21000000000001</v>
-      </c>
-    </row>
-    <row r="207" ht="15.75" customHeight="1">
+        <v>182.21</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>88</v>
       </c>
@@ -2566,23 +2304,23 @@
         <v>187.38</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>44651</v>
       </c>
       <c r="B208" s="3">
-        <v>183.24000000000001</v>
-      </c>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
+        <v>183.24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B209" s="3">
-        <v>184.09999999999999</v>
-      </c>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
+        <v>184.1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>44712</v>
       </c>
@@ -2590,7 +2328,7 @@
         <v>182.34</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>90</v>
       </c>
@@ -2598,23 +2336,23 @@
         <v>188.91</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>44773</v>
       </c>
       <c r="B212" s="3">
-        <v>185.27000000000001</v>
-      </c>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
+        <v>185.27</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>44804</v>
       </c>
       <c r="B213" s="3">
-        <v>176.36000000000001</v>
-      </c>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
+        <v>176.36</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>91</v>
       </c>
@@ -2622,71 +2360,71 @@
         <v>178.97</v>
       </c>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>44865</v>
       </c>
       <c r="B215" s="3">
-        <v>177.30000000000001</v>
-      </c>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
+        <v>177.3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B216" s="3">
-        <v>174.74000000000001</v>
-      </c>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
+        <v>174.74</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>44926</v>
       </c>
       <c r="B217" s="3">
-        <v>178.11000000000001</v>
-      </c>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
+        <v>178.11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>44957</v>
       </c>
       <c r="B218" s="3">
-        <v>189.22999999999999</v>
-      </c>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
+        <v>189.23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B219" s="3">
-        <v>182.47999999999999</v>
-      </c>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
+        <v>182.48</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>45016</v>
       </c>
       <c r="B220" s="3">
-        <v>188.24000000000001</v>
-      </c>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
+        <v>188.24</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B221" s="3">
-        <v>173.30000000000001</v>
-      </c>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
+        <v>173.3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>45077</v>
       </c>
       <c r="B222" s="3">
-        <v>167.03999999999999</v>
-      </c>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
+        <v>167.04</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>95</v>
       </c>
@@ -2694,15 +2432,15 @@
         <v>160.02000000000001</v>
       </c>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>45138</v>
       </c>
       <c r="B224" s="3">
-        <v>146.56999999999999</v>
-      </c>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
+        <v>146.57</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>45169</v>
       </c>
@@ -2710,23 +2448,23 @@
         <v>151.69999999999999</v>
       </c>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B226" s="3">
-        <v>147.50999999999999</v>
-      </c>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
+        <v>147.51</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>45230</v>
       </c>
       <c r="B227" s="3">
-        <v>154.40000000000001</v>
-      </c>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
+        <v>154.4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>97</v>
       </c>
@@ -2734,39 +2472,39 @@
         <v>153</v>
       </c>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>45291</v>
       </c>
       <c r="B229" s="3">
-        <v>151.43000000000001</v>
-      </c>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
+        <v>151.43</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>45322</v>
       </c>
       <c r="B230" s="3">
-        <v>169.69999999999999</v>
-      </c>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B231" s="3">
-        <v>178.43000000000001</v>
-      </c>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
+        <v>178.43</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>45382</v>
       </c>
       <c r="B232" s="3">
-        <v>162.31999999999999</v>
-      </c>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
+        <v>162.32</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>99</v>
       </c>
@@ -2774,7 +2512,7 @@
         <v>146.52000000000001</v>
       </c>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>45443</v>
       </c>
@@ -2782,7 +2520,7 @@
         <v>146.84</v>
       </c>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>100</v>
       </c>
@@ -2790,7 +2528,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>45504</v>
       </c>
@@ -2798,7 +2536,7 @@
         <v>147.47</v>
       </c>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>45535</v>
       </c>
@@ -2806,47 +2544,47 @@
         <v>152.87</v>
       </c>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B238" s="3">
-        <v>167.44999999999999</v>
-      </c>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
+        <v>167.45</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>45596</v>
       </c>
       <c r="B239" s="3">
-        <v>174.19999999999999</v>
-      </c>
-    </row>
-    <row r="240" ht="15.75" customHeight="1">
+        <v>174.2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B240" s="3">
-        <v>193.63999999999999</v>
-      </c>
-    </row>
-    <row r="241" ht="15.75" customHeight="1">
+        <v>193.64</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>45657</v>
       </c>
       <c r="B241" s="3">
-        <v>196.61000000000001</v>
-      </c>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
+        <v>196.61</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>45688</v>
       </c>
       <c r="B242" s="3">
-        <v>189.86000000000001</v>
-      </c>
-    </row>
-    <row r="243" ht="15.75" customHeight="1">
+        <v>189.86</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>103</v>
       </c>
@@ -2854,7 +2592,7 @@
         <v>200.88</v>
       </c>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>45747</v>
       </c>
@@ -2862,15 +2600,15 @@
         <v>189.09</v>
       </c>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B245" s="3">
-        <v>186.34999999999999</v>
-      </c>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
+        <v>186.35</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>45808</v>
       </c>
@@ -2878,58 +2616,61 @@
         <v>195.62</v>
       </c>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="4"/>
-    </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B247" s="3">
+        <v>182.48</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F986409-3C78-4BD8-B157-AA13D811449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0605EB83-6DFE-4EBF-A2A5-80045C335740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="64"/>
@@ -369,6 +369,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -391,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,6 +414,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +650,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
+      <selection activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2625,7 +2633,12 @@
       </c>
     </row>
     <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="4"/>
+      <c r="A248" s="4">
+        <v>45869</v>
+      </c>
+      <c r="B248" s="7">
+        <v>178.52</v>
+      </c>
     </row>
     <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0605EB83-6DFE-4EBF-A2A5-80045C335740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB63285-1ED3-4F29-B658-5182EE05E7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -650,7 +653,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249"/>
+      <selection activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2641,7 +2644,12 @@
       </c>
     </row>
     <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="4"/>
+      <c r="A249" s="4">
+        <v>45900</v>
+      </c>
+      <c r="B249" s="7">
+        <v>185.04</v>
+      </c>
     </row>
     <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB63285-1ED3-4F29-B658-5182EE05E7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B330C52-D580-4E80-9F8F-158AD692D285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>ano</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>31-06-2025</t>
+  </si>
+  <si>
+    <t>31-09-2025</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B250" sqref="B250"/>
+      <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2652,7 +2655,12 @@
       </c>
     </row>
     <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="4"/>
+      <c r="A250" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B250" s="7">
+        <v>173.52</v>
+      </c>
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B330C52-D580-4E80-9F8F-158AD692D285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EABBAC-E59E-482B-98A0-135BCD05A65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -656,7 +656,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251"/>
+      <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2663,7 +2663,12 @@
       </c>
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="4"/>
+      <c r="A251" s="4">
+        <v>45961</v>
+      </c>
+      <c r="B251" s="7">
+        <v>176.4</v>
+      </c>
     </row>
     <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EABBAC-E59E-482B-98A0-135BCD05A65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C5FCA1-DDE1-45B7-94D6-64186C72E479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>ano</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>31-09-2025</t>
+  </si>
+  <si>
+    <t>31-11-2025</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B252" sqref="B252"/>
+      <selection activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2671,7 +2674,12 @@
       </c>
     </row>
     <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="4"/>
+      <c r="A252" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B252" s="7">
+        <v>97.07</v>
+      </c>
     </row>
     <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>

--- a/data/datasets_produtos/ilheus/carne_ilheus.xlsx
+++ b/data/datasets_produtos/ilheus/carne_ilheus.xlsx
@@ -1,36 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\ilheus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C5FCA1-DDE1-45B7-94D6-64186C72E479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="carne_ilheus" sheetId="1" r:id="rId1"/>
+    <sheet name="carne_ilheus" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
@@ -365,24 +345,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
-      <color indexed="64"/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -395,37 +370,34 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,8 +415,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -647,24 +902,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B253" sqref="B253"/>
+    <sheetView topLeftCell="A227" zoomScale="100" workbookViewId="0">
+      <selection activeCell="B253" activeCellId="0" sqref="B253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,23 +926,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2" s="3">
-        <v>38.21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38.210000000000001</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>36.86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36.859999999999999</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
@@ -696,39 +950,39 @@
         <v>38.840000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>37.76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37.759999999999998</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
       <c r="B6" s="3">
-        <v>39.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39.329999999999998</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>37.58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37.579999999999998</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8" s="3">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39.600000000000001</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
@@ -736,7 +990,7 @@
         <v>36.409999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -744,15 +998,15 @@
         <v>36.950000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11" s="3">
-        <v>37.53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37.530000000000001</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -760,7 +1014,7 @@
         <v>37.619999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
@@ -768,7 +1022,7 @@
         <v>38.340000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
@@ -776,7 +1030,7 @@
         <v>38.520000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -784,7 +1038,7 @@
         <v>38.07</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
@@ -792,23 +1046,23 @@
         <v>38.119999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="3">
-        <v>37.17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37.170000000000002</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18" s="3">
-        <v>37.26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37.259999999999998</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -816,31 +1070,31 @@
         <v>36.590000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20" s="3">
-        <v>37.17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37.170000000000002</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21" s="3">
-        <v>37.89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37.890000000000001</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="3">
-        <v>39.06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>39.060000000000002</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
@@ -848,7 +1102,7 @@
         <v>38.159999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" ht="12.75">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -856,7 +1110,7 @@
         <v>37.979999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" ht="12.75">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
@@ -864,23 +1118,23 @@
         <v>40.68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" ht="12.75">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26" s="3">
-        <v>41.04</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41.039999999999999</v>
+      </c>
+    </row>
+    <row r="27" ht="12.75">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="3">
-        <v>39.11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>39.109999999999999</v>
+      </c>
+    </row>
+    <row r="28" ht="12.75">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
@@ -888,7 +1142,7 @@
         <v>38.119999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" ht="12.75">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -896,7 +1150,7 @@
         <v>38.880000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" ht="12.75">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
@@ -904,7 +1158,7 @@
         <v>36.409999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" ht="12.75">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -912,7 +1166,7 @@
         <v>36.270000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" ht="12.75">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
@@ -920,63 +1174,63 @@
         <v>36.229999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" ht="12.75">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33" s="3">
-        <v>37.44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>37.439999999999998</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="3">
-        <v>38.97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>38.969999999999999</v>
+      </c>
+    </row>
+    <row r="35" ht="12.75">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35" s="3">
-        <v>39.47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>39.469999999999999</v>
+      </c>
+    </row>
+    <row r="36" ht="12.75">
       <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="3">
-        <v>39.51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>39.509999999999998</v>
+      </c>
+    </row>
+    <row r="37" ht="12.75">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37" s="3">
-        <v>41.63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41.630000000000003</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38" s="3">
-        <v>41.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41.399999999999999</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="3">
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>42.299999999999997</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
@@ -984,47 +1238,47 @@
         <v>40.549999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" ht="12.75">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="3">
-        <v>41.76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41.759999999999998</v>
+      </c>
+    </row>
+    <row r="42" ht="12.75">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42" s="3">
-        <v>43.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>43.700000000000003</v>
+      </c>
+    </row>
+    <row r="43" ht="12.75">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="3">
-        <v>44.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44.600000000000001</v>
+      </c>
+    </row>
+    <row r="44" ht="12.75">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44" s="3">
-        <v>45.23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>45.229999999999997</v>
+      </c>
+    </row>
+    <row r="45" ht="12.75">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45" s="3">
-        <v>44.96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44.960000000000001</v>
+      </c>
+    </row>
+    <row r="46" ht="12.75">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
@@ -1032,55 +1286,55 @@
         <v>47.43</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" ht="12.75">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47" s="3">
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>50.399999999999999</v>
+      </c>
+    </row>
+    <row r="48" ht="12.75">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B48" s="3">
-        <v>52.02</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>52.020000000000003</v>
+      </c>
+    </row>
+    <row r="49" ht="12.75">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49" s="3">
-        <v>55.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>55.399999999999999</v>
+      </c>
+    </row>
+    <row r="50" ht="12.75">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
       <c r="B50" s="3">
-        <v>53.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>53.100000000000001</v>
+      </c>
+    </row>
+    <row r="51" ht="12.75">
       <c r="A51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="3">
-        <v>51.89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>51.890000000000001</v>
+      </c>
+    </row>
+    <row r="52" ht="12.75">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52" s="3">
-        <v>51.39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>51.390000000000001</v>
+      </c>
+    </row>
+    <row r="53" ht="12.75">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
@@ -1088,23 +1342,23 @@
         <v>51.93</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" ht="12.75">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54" s="3">
-        <v>50.58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>50.579999999999998</v>
+      </c>
+    </row>
+    <row r="55" ht="12.75">
       <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="3">
-        <v>50.58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>50.579999999999998</v>
+      </c>
+    </row>
+    <row r="56" ht="12.75">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
@@ -1112,79 +1366,79 @@
         <v>51.75</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" ht="12.75">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57" s="3">
-        <v>51.62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>51.619999999999997</v>
+      </c>
+    </row>
+    <row r="58" ht="12.75">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B58" s="3">
-        <v>53.24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>53.240000000000002</v>
+      </c>
+    </row>
+    <row r="59" ht="12.75">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59" s="3">
-        <v>46.31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>46.310000000000002</v>
+      </c>
+    </row>
+    <row r="60" ht="12.75">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="3">
-        <v>52.56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>52.560000000000002</v>
+      </c>
+    </row>
+    <row r="61" ht="12.75">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61" s="3">
-        <v>49.77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>49.770000000000003</v>
+      </c>
+    </row>
+    <row r="62" ht="12.75">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62" s="3">
-        <v>50.58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>50.579999999999998</v>
+      </c>
+    </row>
+    <row r="63" ht="12.75">
       <c r="A63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="3">
-        <v>53.73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>53.729999999999997</v>
+      </c>
+    </row>
+    <row r="64" ht="12.75">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
       <c r="B64" s="3">
-        <v>53.55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>53.549999999999997</v>
+      </c>
+    </row>
+    <row r="65" ht="12.75">
       <c r="A65" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B65" s="3">
-        <v>53.24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>53.240000000000002</v>
+      </c>
+    </row>
+    <row r="66" ht="12.75">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
@@ -1192,39 +1446,39 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" ht="12.75">
       <c r="A67" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B67" s="3">
-        <v>57.06</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>57.060000000000002</v>
+      </c>
+    </row>
+    <row r="68" ht="12.75">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68" s="3">
-        <v>56.79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>56.789999999999999</v>
+      </c>
+    </row>
+    <row r="69" ht="12.75">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69" s="3">
-        <v>57.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>57.200000000000003</v>
+      </c>
+    </row>
+    <row r="70" ht="12.75">
       <c r="A70" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B70" s="3">
-        <v>60.62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>60.619999999999997</v>
+      </c>
+    </row>
+    <row r="71" ht="12.75">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
@@ -1232,31 +1486,31 @@
         <v>63.18</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" ht="12.75">
       <c r="A72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B72" s="3">
-        <v>67.86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>67.859999999999999</v>
+      </c>
+    </row>
+    <row r="73" ht="12.75">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73" s="3">
-        <v>68.94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>68.939999999999998</v>
+      </c>
+    </row>
+    <row r="74" ht="12.75">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74" s="3">
-        <v>62.51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>62.509999999999998</v>
+      </c>
+    </row>
+    <row r="75" ht="12.75">
       <c r="A75" s="2" t="s">
         <v>32</v>
       </c>
@@ -1264,23 +1518,23 @@
         <v>65.209999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" ht="12.75">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76" s="3">
-        <v>66.87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>66.870000000000005</v>
+      </c>
+    </row>
+    <row r="77" ht="12.75">
       <c r="A77" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B77" s="3">
-        <v>63.45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>63.450000000000003</v>
+      </c>
+    </row>
+    <row r="78" ht="12.75">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
@@ -1288,31 +1542,31 @@
         <v>63.68</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" ht="12.75">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B79" s="3">
-        <v>63.27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>63.270000000000003</v>
+      </c>
+    </row>
+    <row r="80" ht="12.75">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80" s="3">
-        <v>63.72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>63.719999999999999</v>
+      </c>
+    </row>
+    <row r="81" ht="12.75">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81" s="3">
-        <v>63.14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>63.140000000000001</v>
+      </c>
+    </row>
+    <row r="82" ht="12.75">
       <c r="A82" s="2" t="s">
         <v>35</v>
       </c>
@@ -1320,23 +1574,23 @@
         <v>64.760000000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" ht="12.75">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83" s="3">
-        <v>63.09</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>63.090000000000003</v>
+      </c>
+    </row>
+    <row r="84" ht="12.75">
       <c r="A84" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B84" s="3">
-        <v>69.44</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>69.439999999999998</v>
+      </c>
+    </row>
+    <row r="85" ht="12.75">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
@@ -1344,31 +1598,31 @@
         <v>73.349999999999994</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" ht="12.75">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86" s="3">
-        <v>72.72</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>72.719999999999999</v>
+      </c>
+    </row>
+    <row r="87" ht="12.75">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B87" s="3">
-        <v>74.52</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>74.519999999999996</v>
+      </c>
+    </row>
+    <row r="88" ht="12.75">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88" s="3">
-        <v>74.52</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>74.519999999999996</v>
+      </c>
+    </row>
+    <row r="89" ht="12.75">
       <c r="A89" s="2" t="s">
         <v>38</v>
       </c>
@@ -1376,31 +1630,31 @@
         <v>69.260000000000005</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" ht="12.75">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90" s="3">
-        <v>71.19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>71.189999999999998</v>
+      </c>
+    </row>
+    <row r="91" ht="12.75">
       <c r="A91" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="3">
-        <v>65.66</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>65.659999999999997</v>
+      </c>
+    </row>
+    <row r="92" ht="12.75">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92" s="3">
-        <v>64.17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>64.170000000000002</v>
+      </c>
+    </row>
+    <row r="93" ht="12.75">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
@@ -1408,15 +1662,15 @@
         <v>69.260000000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" ht="12.75">
       <c r="A94" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B94" s="3">
-        <v>68.13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>68.129999999999995</v>
+      </c>
+    </row>
+    <row r="95" ht="12.75">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
@@ -1424,7 +1678,7 @@
         <v>70.650000000000006</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" ht="12.75">
       <c r="A96" s="2" t="s">
         <v>41</v>
       </c>
@@ -1432,55 +1686,55 @@
         <v>70.430000000000007</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" ht="12.75">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97" s="3">
-        <v>70.38</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>70.379999999999995</v>
+      </c>
+    </row>
+    <row r="98" ht="12.75">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98" s="3">
-        <v>71.69</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>71.689999999999998</v>
+      </c>
+    </row>
+    <row r="99" ht="12.75">
       <c r="A99" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B99" s="3">
-        <v>74.52</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>74.519999999999996</v>
+      </c>
+    </row>
+    <row r="100" ht="12.75">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100" s="3">
-        <v>73.31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>73.310000000000002</v>
+      </c>
+    </row>
+    <row r="101" ht="12.75">
       <c r="A101" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B101" s="3">
-        <v>63.05</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>63.049999999999997</v>
+      </c>
+    </row>
+    <row r="102" ht="12.75">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
       <c r="B102" s="3">
-        <v>68.67</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>68.670000000000002</v>
+      </c>
+    </row>
+    <row r="103" ht="12.75">
       <c r="A103" s="2" t="s">
         <v>44</v>
       </c>
@@ -1488,31 +1742,31 @@
         <v>69.709999999999994</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" ht="12.75">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104" s="3">
-        <v>69.39</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>69.390000000000001</v>
+      </c>
+    </row>
+    <row r="105" ht="12.75">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105" s="3">
-        <v>70.92</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>70.920000000000002</v>
+      </c>
+    </row>
+    <row r="106" ht="12.75">
       <c r="A106" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B106" s="3">
-        <v>72.63</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>72.629999999999995</v>
+      </c>
+    </row>
+    <row r="107" ht="12.75">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
@@ -1520,15 +1774,15 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" ht="12.75">
       <c r="A108" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B108" s="3">
-        <v>71.42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>71.420000000000002</v>
+      </c>
+    </row>
+    <row r="109" ht="12.75">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
@@ -1536,7 +1790,7 @@
         <v>71.010000000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" ht="12.75">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
@@ -1544,23 +1798,23 @@
         <v>72.989999999999995</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" ht="12.75">
       <c r="A111" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B111" s="3">
-        <v>69.89</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>69.890000000000001</v>
+      </c>
+    </row>
+    <row r="112" ht="12.75">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112" s="3">
-        <v>72.05</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>72.049999999999997</v>
+      </c>
+    </row>
+    <row r="113" ht="12.75">
       <c r="A113" s="2" t="s">
         <v>48</v>
       </c>
@@ -1568,15 +1822,15 @@
         <v>76.319999999999993</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" ht="12.75">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114" s="3">
-        <v>75.2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>75.200000000000003</v>
+      </c>
+    </row>
+    <row r="115" ht="12.75">
       <c r="A115" s="2" t="s">
         <v>49</v>
       </c>
@@ -1584,15 +1838,15 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" ht="12.75">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
       <c r="B116" s="3">
-        <v>74.03</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>74.030000000000001</v>
+      </c>
+    </row>
+    <row r="117" ht="12.75">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
@@ -1600,15 +1854,15 @@
         <v>76.010000000000005</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" ht="12.75">
       <c r="A118" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B118" s="3">
-        <v>75.42</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>75.420000000000002</v>
+      </c>
+    </row>
+    <row r="119" ht="12.75">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
@@ -1616,7 +1870,7 @@
         <v>75.739999999999995</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" ht="12.75">
       <c r="A120" s="2" t="s">
         <v>51</v>
       </c>
@@ -1624,15 +1878,15 @@
         <v>74.75</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" ht="12.75">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121" s="3">
-        <v>76.73</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>76.730000000000004</v>
+      </c>
+    </row>
+    <row r="122" ht="12.75">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
@@ -1640,7 +1894,7 @@
         <v>77.540000000000006</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" ht="12.75">
       <c r="A123" s="2" t="s">
         <v>52</v>
       </c>
@@ -1648,7 +1902,7 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" ht="12.75">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
@@ -1656,15 +1910,15 @@
         <v>81.5</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" ht="12.75">
       <c r="A125" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B125" s="3">
-        <v>83.21</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>83.209999999999994</v>
+      </c>
+    </row>
+    <row r="126" ht="12.75">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
@@ -1672,79 +1926,79 @@
         <v>78.75</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" ht="12.75">
       <c r="A127" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B127" s="3">
-        <v>83.48</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>83.480000000000004</v>
+      </c>
+    </row>
+    <row r="128" ht="12.75">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128" s="3">
-        <v>93.65</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>93.650000000000006</v>
+      </c>
+    </row>
+    <row r="129" ht="12.75">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129" s="3">
-        <v>95.27</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>95.269999999999996</v>
+      </c>
+    </row>
+    <row r="130" ht="12.75">
       <c r="A130" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B130" s="3">
-        <v>94.95</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>94.950000000000003</v>
+      </c>
+    </row>
+    <row r="131" ht="12.75">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131" s="3">
-        <v>93.74</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>93.739999999999995</v>
+      </c>
+    </row>
+    <row r="132" ht="12.75">
       <c r="A132" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B132" s="3">
-        <v>96.03</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>96.030000000000001</v>
+      </c>
+    </row>
+    <row r="133" ht="12.75">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
       <c r="B133" s="3">
-        <v>96.35</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>96.349999999999994</v>
+      </c>
+    </row>
+    <row r="134" ht="12.75">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134" s="3">
-        <v>98.69</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>98.689999999999998</v>
+      </c>
+    </row>
+    <row r="135" ht="12.75">
       <c r="A135" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B135" s="3">
-        <v>104.04</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>104.04000000000001</v>
+      </c>
+    </row>
+    <row r="136" ht="12.75">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
@@ -1752,231 +2006,231 @@
         <v>105.62</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" ht="12.75">
       <c r="A137" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B137" s="3">
-        <v>101.07</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>101.06999999999999</v>
+      </c>
+    </row>
+    <row r="138" ht="12.75">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138" s="3">
-        <v>93.78</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>93.780000000000001</v>
+      </c>
+    </row>
+    <row r="139" ht="12.75">
       <c r="A139" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B139" s="3">
-        <v>94.64</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>94.640000000000001</v>
+      </c>
+    </row>
+    <row r="140" ht="12.75">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140" s="3">
-        <v>94.86</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>94.859999999999999</v>
+      </c>
+    </row>
+    <row r="141" ht="12.75">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141" s="3">
-        <v>92.79</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>92.790000000000006</v>
+      </c>
+    </row>
+    <row r="142" ht="12.75">
       <c r="A142" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B142" s="3">
-        <v>93.24</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>93.239999999999995</v>
+      </c>
+    </row>
+    <row r="143" ht="12.75">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143" s="3">
-        <v>95.54</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>95.540000000000006</v>
+      </c>
+    </row>
+    <row r="144" ht="12.75">
       <c r="A144" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B144" s="3">
-        <v>95.22</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>95.219999999999999</v>
+      </c>
+    </row>
+    <row r="145" ht="12.75">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145" s="3">
-        <v>98.42</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>98.420000000000002</v>
+      </c>
+    </row>
+    <row r="146" ht="12.75">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
       <c r="B146" s="3">
-        <v>100.76</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>100.76000000000001</v>
+      </c>
+    </row>
+    <row r="147" ht="12.75">
       <c r="A147" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B147" s="3">
-        <v>96.12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>96.120000000000005</v>
+      </c>
+    </row>
+    <row r="148" ht="12.75">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148" s="3">
-        <v>97.02</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>97.019999999999996</v>
+      </c>
+    </row>
+    <row r="149" ht="12.75">
       <c r="A149" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B149" s="3">
-        <v>98.19</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>98.189999999999998</v>
+      </c>
+    </row>
+    <row r="150" ht="12.75">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150" s="3">
-        <v>92.7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>92.700000000000003</v>
+      </c>
+    </row>
+    <row r="151" ht="12.75">
       <c r="A151" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B151" s="3">
-        <v>94.82</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>94.819999999999993</v>
+      </c>
+    </row>
+    <row r="152" ht="12.75">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152" s="3">
-        <v>94.86</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>94.859999999999999</v>
+      </c>
+    </row>
+    <row r="153" ht="12.75">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153" s="3">
-        <v>95.49</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>95.489999999999995</v>
+      </c>
+    </row>
+    <row r="154" ht="12.75">
       <c r="A154" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B154" s="3">
-        <v>95.31</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>95.310000000000002</v>
+      </c>
+    </row>
+    <row r="155" ht="12.75">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
       <c r="B155" s="3">
-        <v>97.92</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>97.920000000000002</v>
+      </c>
+    </row>
+    <row r="156" ht="12.75">
       <c r="A156" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B156" s="3">
-        <v>97.88</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>97.879999999999995</v>
+      </c>
+    </row>
+    <row r="157" ht="12.75">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157" s="3">
-        <v>98.78</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>98.780000000000001</v>
+      </c>
+    </row>
+    <row r="158" ht="12.75">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
       <c r="B158" s="3">
-        <v>101.21</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>101.20999999999999</v>
+      </c>
+    </row>
+    <row r="159" ht="12.75">
       <c r="A159" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B159" s="3">
-        <v>101.79</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>101.79000000000001</v>
+      </c>
+    </row>
+    <row r="160" ht="12.75">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160" s="3">
-        <v>99.18</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>99.180000000000007</v>
+      </c>
+    </row>
+    <row r="161" ht="12.75">
       <c r="A161" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B161" s="3">
-        <v>96.57</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>96.569999999999993</v>
+      </c>
+    </row>
+    <row r="162" ht="12.75">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162" s="3">
-        <v>99.45</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>99.450000000000003</v>
+      </c>
+    </row>
+    <row r="163" ht="12.75">
       <c r="A163" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B163" s="3">
-        <v>105.21</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>105.20999999999999</v>
+      </c>
+    </row>
+    <row r="164" ht="12.75">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164" s="3">
-        <v>99.23</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>99.230000000000004</v>
+      </c>
+    </row>
+    <row r="165" ht="12.75">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
@@ -1984,7 +2238,7 @@
         <v>101.52</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" ht="12.75">
       <c r="A166" s="2" t="s">
         <v>70</v>
       </c>
@@ -1992,15 +2246,15 @@
         <v>100.22</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" ht="12.75">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167" s="3">
-        <v>103.01</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>103.01000000000001</v>
+      </c>
+    </row>
+    <row r="168" ht="12.75">
       <c r="A168" s="2" t="s">
         <v>71</v>
       </c>
@@ -2008,7 +2262,7 @@
         <v>105.03</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" ht="12.75">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
@@ -2016,7 +2270,7 @@
         <v>110.16</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" ht="12.75">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
@@ -2024,7 +2278,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" ht="12.75">
       <c r="A171" s="2" t="s">
         <v>72</v>
       </c>
@@ -2032,7 +2286,7 @@
         <v>114.08</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" ht="12.75">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
@@ -2040,7 +2294,7 @@
         <v>108.81</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" ht="12.75">
       <c r="A173" s="2" t="s">
         <v>73</v>
       </c>
@@ -2048,7 +2302,7 @@
         <v>108.5</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" ht="12.75">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
@@ -2056,7 +2310,7 @@
         <v>106.11</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" ht="12.75">
       <c r="A175" s="2" t="s">
         <v>74</v>
       </c>
@@ -2064,7 +2318,7 @@
         <v>105.48</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" ht="12.75">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
@@ -2072,7 +2326,7 @@
         <v>101.48</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" ht="12.75">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
@@ -2080,7 +2334,7 @@
         <v>103.64</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" ht="12.75">
       <c r="A178" s="2" t="s">
         <v>75</v>
       </c>
@@ -2088,7 +2342,7 @@
         <v>106.56</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" ht="12.75">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
@@ -2096,7 +2350,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" ht="12.75">
       <c r="A180" s="2" t="s">
         <v>76</v>
       </c>
@@ -2104,7 +2358,7 @@
         <v>108.45</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" ht="12.75">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
@@ -2112,7 +2366,7 @@
         <v>129.91999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" ht="12.75">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
@@ -2120,7 +2374,7 @@
         <v>107.91</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" ht="12.75">
       <c r="A183" s="2" t="s">
         <v>77</v>
       </c>
@@ -2128,7 +2382,7 @@
         <v>113.81</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" ht="12.75">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
@@ -2136,7 +2390,7 @@
         <v>115.88</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" ht="12.75">
       <c r="A185" s="2" t="s">
         <v>78</v>
       </c>
@@ -2144,7 +2398,7 @@
         <v>119.25</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" ht="12.75">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
@@ -2152,7 +2406,7 @@
         <v>118.62</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" ht="12.75">
       <c r="A187" s="2" t="s">
         <v>79</v>
       </c>
@@ -2160,7 +2414,7 @@
         <v>115.25</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" ht="12.75">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
@@ -2168,7 +2422,7 @@
         <v>118.67</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" ht="12.75">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
@@ -2176,15 +2430,15 @@
         <v>135.05000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" ht="12.75">
       <c r="A190" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B190" s="3">
-        <v>142.79</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>142.78999999999999</v>
+      </c>
+    </row>
+    <row r="191" ht="12.75">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
@@ -2192,15 +2446,15 @@
         <v>148.19</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" ht="12.75">
       <c r="A192" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B192" s="3">
-        <v>157.46</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>157.46000000000001</v>
+      </c>
+    </row>
+    <row r="193" ht="12.75">
       <c r="A193" s="2">
         <v>44196</v>
       </c>
@@ -2208,15 +2462,15 @@
         <v>137.84</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" ht="12.75">
       <c r="A194" s="2">
         <v>44227</v>
       </c>
       <c r="B194" s="3">
-        <v>158.04</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>158.03999999999999</v>
+      </c>
+    </row>
+    <row r="195" ht="12.75">
       <c r="A195" s="2" t="s">
         <v>82</v>
       </c>
@@ -2224,15 +2478,15 @@
         <v>159.97999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" ht="12.75">
       <c r="A196" s="2">
         <v>44286</v>
       </c>
       <c r="B196" s="3">
-        <v>142.43</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>142.43000000000001</v>
+      </c>
+    </row>
+    <row r="197" ht="12.75">
       <c r="A197" s="2" t="s">
         <v>83</v>
       </c>
@@ -2240,7 +2494,7 @@
         <v>152.87</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" ht="12.75">
       <c r="A198" s="2">
         <v>44347</v>
       </c>
@@ -2248,7 +2502,7 @@
         <v>156.91999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" ht="12.75">
       <c r="A199" s="2" t="s">
         <v>84</v>
       </c>
@@ -2256,15 +2510,15 @@
         <v>168.66</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2">
         <v>44408</v>
       </c>
       <c r="B200" s="3">
-        <v>161.51</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>161.50999999999999</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="4" t="s">
         <v>85</v>
       </c>
@@ -2272,24 +2526,24 @@
         <v>151.56</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B202" s="5">
         <f>35.78*4.5</f>
-        <v>161.01</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>161.00999999999999</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2">
         <v>44500</v>
       </c>
       <c r="B203" s="3">
-        <v>172.67</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>172.66999999999999</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2" t="s">
         <v>87</v>
       </c>
@@ -2297,7 +2551,7 @@
         <v>167.22</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2">
         <v>44561</v>
       </c>
@@ -2305,15 +2559,15 @@
         <v>178.38</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2">
         <v>44592</v>
       </c>
       <c r="B206" s="3">
-        <v>182.21</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>182.21000000000001</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="4" t="s">
         <v>88</v>
       </c>
@@ -2321,23 +2575,23 @@
         <v>187.38</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2">
         <v>44651</v>
       </c>
       <c r="B208" s="3">
-        <v>183.24</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>183.24000000000001</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B209" s="3">
-        <v>184.1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>184.09999999999999</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2">
         <v>44712</v>
       </c>
@@ -2345,7 +2599,7 @@
         <v>182.34</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="4" t="s">
         <v>90</v>
       </c>
@@ -2353,23 +2607,23 @@
         <v>188.91</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="4">
         <v>44773</v>
       </c>
       <c r="B212" s="3">
-        <v>185.27</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>185.27000000000001</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="4">
         <v>44804</v>
       </c>
       <c r="B213" s="3">
-        <v>176.36</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176.36000000000001</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="4" t="s">
         <v>91</v>
       </c>
@@ -2377,71 +2631,71 @@
         <v>178.97</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="4">
         <v>44865</v>
       </c>
       <c r="B215" s="3">
-        <v>177.3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>177.30000000000001</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B216" s="3">
-        <v>174.74</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>174.74000000000001</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="4">
         <v>44926</v>
       </c>
       <c r="B217" s="3">
-        <v>178.11</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>178.11000000000001</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="4">
         <v>44957</v>
       </c>
       <c r="B218" s="3">
-        <v>189.23</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>189.22999999999999</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B219" s="3">
-        <v>182.48</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>182.47999999999999</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="4">
         <v>45016</v>
       </c>
       <c r="B220" s="3">
-        <v>188.24</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188.24000000000001</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B221" s="3">
-        <v>173.3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>173.30000000000001</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="4">
         <v>45077</v>
       </c>
       <c r="B222" s="3">
-        <v>167.04</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>167.03999999999999</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="4" t="s">
         <v>95</v>
       </c>
@@ -2449,15 +2703,15 @@
         <v>160.02000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="4">
         <v>45138</v>
       </c>
       <c r="B224" s="3">
-        <v>146.57</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>146.56999999999999</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="4">
         <v>45169</v>
       </c>
@@ -2465,23 +2719,23 @@
         <v>151.69999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B226" s="3">
-        <v>147.51</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>147.50999999999999</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="4">
         <v>45230</v>
       </c>
       <c r="B227" s="3">
-        <v>154.4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>154.40000000000001</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="4" t="s">
         <v>97</v>
       </c>
@@ -2489,39 +2743,39 @@
         <v>153</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="4">
         <v>45291</v>
       </c>
       <c r="B229" s="3">
-        <v>151.43</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>151.43000000000001</v>
+      </c>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="4">
         <v>45322</v>
       </c>
       <c r="B230" s="3">
-        <v>169.7</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>169.69999999999999</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B231" s="3">
-        <v>178.43</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>178.43000000000001</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="4">
         <v>45382</v>
       </c>
       <c r="B232" s="3">
-        <v>162.32</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>162.31999999999999</v>
+      </c>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="4" t="s">
         <v>99</v>
       </c>
@@ -2529,7 +2783,7 @@
         <v>146.52000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="4">
         <v>45443</v>
       </c>
@@ -2537,7 +2791,7 @@
         <v>146.84</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="4" t="s">
         <v>100</v>
       </c>
@@ -2545,7 +2799,7 @@
         <v>159.12</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="4">
         <v>45504</v>
       </c>
@@ -2553,7 +2807,7 @@
         <v>147.47</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="4">
         <v>45535</v>
       </c>
@@ -2561,47 +2815,47 @@
         <v>152.87</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B238" s="3">
-        <v>167.45</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>167.44999999999999</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="4">
         <v>45596</v>
       </c>
       <c r="B239" s="3">
-        <v>174.2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>174.19999999999999</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B240" s="3">
-        <v>193.64</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>193.63999999999999</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="4">
         <v>45657</v>
       </c>
       <c r="B241" s="3">
-        <v>196.61</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>196.61000000000001</v>
+      </c>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="4">
         <v>45688</v>
       </c>
       <c r="B242" s="3">
-        <v>189.86</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>189.86000000000001</v>
+      </c>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="4" t="s">
         <v>103</v>
       </c>
@@ -2609,7 +2863,7 @@
         <v>200.88</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="4">
         <v>45747</v>
       </c>
@@ -2617,15 +2871,15 @@
         <v>189.09</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B245" s="3">
-        <v>186.35</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>186.34999999999999</v>
+      </c>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="4">
         <v>45808</v>
       </c>
@@ -2633,86 +2887,93 @@
         <v>195.62</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B247" s="3">
-        <v>182.48</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>182.47999999999999</v>
+      </c>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="4">
         <v>45869</v>
       </c>
-      <c r="B248" s="7">
-        <v>178.52</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="3">
+        <v>178.52000000000001</v>
+      </c>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="4">
         <v>45900</v>
       </c>
-      <c r="B249" s="7">
-        <v>185.04</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B249" s="3">
+        <v>185.03999999999999</v>
+      </c>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B250" s="7">
-        <v>173.52</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="3">
+        <v>173.52000000000001</v>
+      </c>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="4">
         <v>45961</v>
       </c>
-      <c r="B251" s="7">
-        <v>176.4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B251" s="3">
+        <v>176.40000000000001</v>
+      </c>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B252" s="7">
-        <v>97.07</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="4"/>
-    </row>
-    <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B252" s="3">
+        <v>97.069999999999993</v>
+      </c>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="A253" s="4">
+        <v>46022</v>
+      </c>
+      <c r="B253">
+        <v>140.63</v>
+      </c>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="4"/>
     </row>
-    <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="4"/>
     </row>
-    <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="4"/>
     </row>
-    <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="4"/>
     </row>
-    <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="4"/>
     </row>
-    <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="4"/>
     </row>
-    <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="4"/>
     </row>
-    <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="4"/>
     </row>
-    <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>